--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\TX\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{788BF951-A8E7-43F5-BDBA-E2C559DB3AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C8EF54E-C493-4622-85AF-C0442814C2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="1080" yWindow="720" windowWidth="13580" windowHeight="10080" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
         <v>139</v>
       </c>
       <c r="C1" s="4">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -54722,8 +54722,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -55324,97 +55324,97 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.75">
@@ -55422,97 +55422,97 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.75">
@@ -56108,97 +56108,97 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.75">
@@ -56794,97 +56794,97 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.75">
@@ -56892,97 +56892,97 @@
         <v>39</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.75">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\TX\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC307FA0-3D32-4C0D-B51F-F9A3259F523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0214CEA1-0C5C-4C95-9FEB-1C3833B3DAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="17895" windowHeight="16500" firstSheet="7" activeTab="8" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
         <v>139</v>
       </c>
       <c r="C1" s="4">
-        <v>45730</v>
+        <v>45744</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2384,8 +2384,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,8 +6375,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="I48">
         <f>INDEX('petroleum adj'!B:B,MATCH(B48,'petroleum adj'!$A:$A,0))</f>
@@ -88906,8 +88906,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89955,22 +89955,22 @@
         <v>143</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\TX\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0214CEA1-0C5C-4C95-9FEB-1C3833B3DAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{601F5C55-1961-47A7-8A4D-DABAA6E2F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
@@ -1549,7 +1549,7 @@
         <v>139</v>
       </c>
       <c r="C1" s="4">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2385,7 +2385,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,6 +2976,7 @@
         <v>0.9</v>
       </c>
       <c r="F6">
+        <f>E6</f>
         <v>0.9</v>
       </c>
       <c r="G6">
@@ -6375,8 +6376,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6836,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f>INDEX('petroleum adj'!B:B,MATCH(B13,'petroleum adj'!$A:$A,0))</f>
